--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/8_Antalya_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/8_Antalya_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542D5D3F-539B-46E6-8335-0EE7F1B9238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6102BA18-FFA9-47BB-A8CA-56DD6F9589FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="686" xr2:uid="{AE434E36-A24F-4BBB-9567-DE889C14B117}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{4260FDC8-1360-407E-9085-5B19C72325B5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -982,15 +982,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3C742E8A-9A10-4838-80AC-3292B43497C2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{491CFC54-22BF-43CD-884D-C68CD4C6A10A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E6D09DA2-2E69-490E-B5ED-F3218C5DE72D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E4E94DB5-851D-4678-B07D-4FFD748927F6}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{E438361F-EEDA-44FC-8E36-08570B79E66F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{B165DB10-594E-4416-A5BB-386A34D4D19E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{8C8DF733-58A7-4B8D-84A7-FAB087735BCE}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{F3AF6695-8D20-4E80-8346-87CA57DC5B40}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{A302DDF3-261D-4ED9-94A5-9817F6AE8F2D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C97B583B-8DFC-4C93-AE31-DB7DBB7B2344}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CBD2BF8E-46AB-487B-ACB0-5726D4E143DE}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{61B8B0EB-5D6A-48E9-A3F3-85735D3E9BFC}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0575B9D7-04F0-4CBA-9499-606834DA11BF}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{4D2883D7-EBF2-4540-AE88-92BB0EDB49F4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{E362756B-9C13-478E-A7C7-8DDE5A75DFB0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{823E5B9E-4B9E-41F7-A164-E87DF1238229}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{358F522F-0E89-4252-BEAE-E42491D71567}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{98E67FBC-5B52-40E3-B5B6-FBED47C47BE5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E21DB-A0EF-4686-B577-489D46A62D6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF76325A-205F-49D6-B70E-71FCE94604A4}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2686,17 +2686,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65E3E90F-149E-4C01-99D2-CAD7C7F4955C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6B219D4-23C7-47B6-BD59-EF05821CC70F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A3C53AF-FCA3-4F12-8A8C-E8618FC5A685}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C42C955B-193B-4E78-B102-7EEA4C933098}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74574817-9CA2-4BCD-A184-07434448FC29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{246A552F-A051-4FAE-AE8B-921559D293E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7FBED2D-4F44-4C85-BBC4-E9DE700FEB21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE7CF069-C4BD-4B1D-9F57-8458BC97F9D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B5639512-7495-4ED2-B69B-801B00D78265}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{146FCAF9-AB39-4E3C-9AB5-24D11F7B360B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7252EA8-D1CB-4CF3-AC30-43DF003D9EA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{080369A9-F454-4956-AF30-B18939DC4F59}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97C73E80-DFBC-42E2-A26A-18BDC5B06A54}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E75C11C-CCE0-49C2-BF09-FB4B3EF77844}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F818CDE2-8920-4FC0-B743-2362A4CC1BCD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D38CC05-BBCA-4550-A18E-29DA85017EC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D280C292-5498-4BAC-8941-32B139C84510}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CFFC12E-F757-4D17-9B6C-1760C9E6138D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A123A008-60E1-443C-BA65-83164B10DD76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{01547CF8-4449-414B-85B8-43B863F35FCC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1519DE71-E032-4AAA-8641-ECC67FF1BBFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D54802BD-9149-475D-8F97-D34B3211A582}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2709,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0212B8E5-AA47-4FB9-A2DD-92DF14F94D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F16DFA4-7A26-4584-977A-AA5AA1DC6271}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -4029,17 +4029,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6BCBF9C-EDCA-420C-A563-97D30E0971A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A139175-6D84-407B-9875-3A6DE337F7BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D04F6137-F6C5-4D8E-95DD-6DD28F74AB29}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8DC425BD-06F0-4391-9B64-15748301B248}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82961C4E-C6BC-4500-8715-C38E070F23D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57CF497D-5F17-4AD3-8279-FE2F214DAFD7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24CB7457-0F40-4451-BA8C-5C9FDA5ACFD6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1DE4B9F-79D6-47B3-85EB-3F2B2DC38F87}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{99B31C7B-478B-4B51-8E39-AE30CF5CA2B0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7536B1FC-2314-4575-9BDA-5ECD112266D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D438E73F-374C-41EC-83E9-F4B7FB069650}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1B66263-E6B6-4C4E-8176-4FB614594385}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6D29151-E529-48D0-9412-C66403AA1108}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A8EEBCDC-D94A-4668-88FF-CB514A0C0E18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E51304F-6E22-43F7-B5D7-6270D15F4543}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F3305AC-0278-4D37-A6B2-39A2786144F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A78289CE-705A-4E7F-B3E2-21AA2161E3DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6BCF74C-753D-4A64-9BEE-9C9C4E0764FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA591BD8-0973-4653-B0AD-DBE495DC0EEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FF19DEE0-836D-4F07-8D65-71835A3727E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6C5CD240-4C67-443E-AFD8-258F1EDA84CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82BC47E7-4A3B-4185-8B83-FE03E336F03D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4052,7 +4052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB22E2-4658-482F-8326-451663246F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06C9103-9ACF-473E-8FD2-66DC43A0013B}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5368,17 +5368,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73AF4949-5491-4C22-B6E2-E86B2BBFDD15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DFCCD58-EAFF-4EDE-825D-F9D691FC92CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{160E03E0-9CDC-4E22-87B6-A983F94DE178}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87AEDB4F-5708-4D4C-BB20-F4F76441CC0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE339BE6-776C-4DAC-BD28-20EC0AEAC18B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6EBED21-AA0F-435A-BE2A-3D0C4DE36043}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{800D4849-5377-4E90-B257-2CC11B46CF16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{067A5071-2739-40F4-BB8D-A439BD2B66AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{702D6F6B-99C3-419F-83ED-B7687AF56E18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6374D207-C122-411C-859C-7D7436030164}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{663EAD6D-79E8-4AEE-BD26-547CF0D555EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27482DEA-B694-43AB-8BDB-EECE9FB55644}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1035CB0D-8D8D-4071-B1E9-032CCF17E3CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{97F2CC7D-BFDB-4B9B-9A79-427506C920F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{992440E3-59EC-45F0-AAB3-D216CB5DEB19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DCD30EB-4A47-4C87-AAF8-A999B23CDD42}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0387237-EBAD-4326-85D9-B60B2C2CE3D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A7383F0-7B5F-4915-B5AD-65DA228680E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1195D197-8B08-468B-B4A9-687A607988CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3D14028B-D8B4-4922-A8C9-FECE93AFEAA8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F606EF7F-350A-4B16-BEF8-C538A0578670}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4CCF7FF-7A51-4131-970E-D8C0040CE014}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5391,7 +5391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DAB0F8-A87B-4AA2-A1D1-03323A0B9277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0971F3F8-4155-43D7-81D0-ACAFB449BFE9}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6699,17 +6699,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60B32692-FFC0-491D-B791-99200111D299}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAB144A5-04F4-4242-9D24-65395C9D36FC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2BC0B9FD-9B81-4B3A-B9F5-BF997BD672FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D05744E-F82A-4BA9-A740-DE838B97C6DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7371C1F-A135-4A81-9288-8853EDF01EA9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CABEA26-2D49-4F65-B768-526B9F282A1C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43D38C0E-6F7E-49D1-A68B-BEAAD252A31F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA3EBE27-DDAA-4747-BB83-CF2F0DE04EA3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0192BAFA-92CE-4FAD-8DC3-3E718A84C614}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F03F821D-3755-4C4A-B89F-547593D188F2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83D7624E-8A03-4F5B-ABF5-860F911D37F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5EF47686-D910-4CE8-A7EC-847F228FF417}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37D62681-E855-441B-A3C7-E63DFD0F858F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FFCBA087-DA6B-4C01-95AD-4AA9D0240CB9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{570605CD-29DC-40EC-86B3-C7BE4FC3A2F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61EFA571-D8C5-4242-AB12-4F19CDE96BD3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8BD689E6-D8CB-47B7-8F51-3316348F43E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1722AC4-46C5-4057-BC8A-B2AB9CD5A2BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DA39075-D96E-4824-89CD-3727D5A8325B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F943B9E6-00AA-46F2-8585-87664734FFFB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8A8210D1-3600-4C7F-B304-B2169BF52C72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E5422D3-0656-437C-BF50-8E983C9F5895}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6722,7 +6722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2285AB-878F-49A5-AE78-06BEAADC5636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DE6AAE-E95F-48B2-B6ED-57BC419D5DBE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8045,17 +8045,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98BEE94C-574E-46EF-AC7D-D58CDB97DC75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37A3470A-C9B5-413B-BF9C-052FF1C521C4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{100C9270-7048-48FB-B95E-DD525221C451}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A5578981-ACA3-4C9D-8243-BB5EC4B43DD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3B5E71B-FC17-4904-83CF-851D13D21D5E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6AF5774-FA41-4BF2-A272-0D3EC78DBECB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64ABDA5C-1D68-47EC-BCF2-409C5CB97ADD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2ABDB653-7C5C-4868-B3C8-1F3B92A02D11}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EBA6E643-36B3-4BE6-A9AC-5B99E392653D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{10B6D54E-5B99-4BD7-80A1-41F6640A0B19}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEA3D928-CC53-43BD-971F-5484514FD7C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A490197A-D8B7-42C6-91B8-F723D7EC457D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4AF2528-8939-4F94-8A9A-B550872D4778}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC5B0637-B470-40C9-AB6D-0E71406EE8D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F495AC1-5654-42B8-9C07-B965541FB2E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18A71AD2-632C-43FD-97B4-08E04911A6DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12C3D869-4070-488D-89A6-A6ABE595DCE8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48617533-C37E-4A0E-918C-404AB3F18C9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50A9C449-1E13-44F9-B819-53D8C38614B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FAB05BB1-3411-40FF-9383-1F122534A002}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{34AA1112-7EC5-475B-96CC-01614F56BD7F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0DA2B22-996B-46BA-A23C-761201E8CB11}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8068,7 +8068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19972525-584A-49B2-BC7F-4897C2FEAB0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F76E2F-988A-4AC4-95D3-422837E52879}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9391,17 +9391,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BCF3BF3-D13D-46A8-B1BE-F3A38225D1D7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44D78A67-36C8-4000-8195-51406F06EBD6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12F85787-68F4-4ECD-A37D-B98A99E945A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E1E83AF-6491-4F29-BD8A-5721FD5B2706}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{719F9440-DE4C-434F-8E0D-14C98BAD2A3F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68B9C385-EBAD-421F-8F11-AE33AD025DC1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D4959A4-D475-4281-AE13-68F3791C7D41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B9F2E2A-C0C2-4952-AAC9-BAE0DC32A54C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E1A14890-FD66-436A-B2DB-4DDAC623D030}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{02479FD0-1E48-4152-B20C-0B5F2D368B44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD27DCF4-E20A-4436-B770-B639AD8C0CD8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84295580-3612-409D-BC12-3EDBC247B181}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B404F91B-28B1-4A2A-B36B-04164D0C5672}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D50A4E6D-7606-4706-B22C-C34AE7E26FA1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C9BA60CB-2129-4A37-ADE9-26842D1B4DD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AF784FE-6F5C-4493-AB06-280DA6DB37EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA37EAE8-93A6-453B-B48E-3BE5A7B82200}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2AA8C266-1116-499D-A4C3-1F48220F4657}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB54ECE3-8726-4A41-B2B3-5089DF8FBB5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CBF11270-12DA-4468-964F-9C230D4C8BA8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F34D185E-677D-40BE-B5B6-016AC11823FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C13B973-7225-4400-8CBC-FA469B0E7B56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9414,7 +9414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B5B324-0918-4E8C-B443-9847353A8EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B904FA18-29D1-46B1-BD53-61A7C9D9C744}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10737,17 +10737,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{672A447E-8491-47A4-A501-6ABC81D9453B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD8329A5-E935-4656-A19E-4939DA5D9A6D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{358B2F89-EC24-4923-973E-EDC412304ECD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{991D786B-04D7-4010-9A98-092B1578E390}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3402D5DE-F155-47E5-88DB-9000C35DE981}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{845158F5-7E7A-4187-A9E0-D13295D0582E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{136FEC29-933E-46C3-9178-69FE8AD8CA23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA3A2CFF-E455-4595-BC4E-11D3A79055F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A73C4F7D-88C5-469E-9180-41529FC8CAF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4F12796E-41B7-489E-90A0-9A38C4825AD7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80B592DD-A96A-494B-AD3D-FEE383ABBBE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6C211A0-F75E-48B4-9308-ADB592DED550}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F81454F8-6781-4F3E-BE90-3052C0A6040C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{758F8D17-58C3-4245-8417-51CCB06DE8AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{095CA566-B21B-476C-8AAA-E9CC71123FA3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDEAF167-BC25-4706-8C59-12E6BFECF378}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7364955F-6B8A-4BAE-8CF9-9407282193DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C0DD884-3256-4BDE-B7B0-AF45DF43AD61}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCFA7FE6-A45D-4818-A7D2-5B24B90BA3E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8AD0D006-D2C3-4946-BDD0-B94C1FE82D17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C7D92026-5E24-4541-A49D-C0B99595A97C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57C6A7B6-8847-4FD7-A757-8FB72E0A0BDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10760,7 +10760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D53752-92E9-4A46-8EF0-6900C9EA650E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22003D-023A-42BF-BEF2-EEDE8612D547}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12083,17 +12083,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E10AA18-FA43-4BAF-B37E-E72636201447}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E458EEF-05F5-4091-A31E-E2C14EAFFCE1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2714EB01-D751-427E-A70B-9560E18FC6D1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EB948D4-3717-4F96-BEE3-2FAD58572987}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{475E0981-03CF-4096-B647-EC896CFCBB06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{638423AC-B56B-4FE1-85B0-FEA99BC00503}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{637AD315-9F19-4194-9803-EC9FEA92CCBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D51511F-3CC5-4582-9699-B6459AFD3A51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C56CC998-C3A1-4792-8ED0-13C9124C505D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1AE99A3A-D718-462F-B0B8-29620F0F6B32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C2A2C7E-9258-45B0-8696-3423EBD5DD0D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF7AF43F-0954-456A-892B-B333745A0746}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAFB092E-C5E2-4744-83DA-79219C0B75EB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{47B7091D-152F-4B9A-90E6-3FAA58910C88}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9FB1C087-A2BA-4C0D-9C19-29D437C674F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C036D50B-6FDD-43A3-BCBF-2570C9EC53B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{31730D04-9FAD-4ECA-8D7D-72304FD218E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09CFF9FA-9D26-41E0-B9C8-AA7DE797A9CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{384CDAE3-4670-48A8-BDAC-9919BD20F565}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BE30506B-35F0-436E-9E40-64ADC4668AA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1B99BA0-E9E6-42C0-9F63-8885657CB3DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{050AE864-89CA-4B74-B0AE-974D12F2A4EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12106,7 +12106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8F3F36-F35D-4D5E-8952-A7E4F6ED9A1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5EE200-B0DC-481F-85D3-872DD211BF41}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13429,17 +13429,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3100A50F-C012-44E5-91E5-3A1FEA4E7D02}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0B8E122-FCB1-453C-9D76-60F198674646}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01F8554A-7AB5-4617-8919-287240567AD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2CD7646C-1DFC-4047-84B0-3C5EE44578E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{995935A2-9DB1-439B-B43A-EFFC7D9FD683}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D21A1A9-F5AC-4A8C-A796-0EFF2545AA88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71355883-E795-415D-AA2B-C696C55BBEB4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{758E8494-21D9-4090-A8D3-F643E7A5F8A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1B56DF52-3121-4F2A-ABA8-2E7144C924D6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{01DCAB6D-D0AB-473E-B790-E7F1C50E8AC5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BD8FB1A-F37C-4310-8F99-137C0CB69F7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C944189-7A60-4222-AF25-A0771C43D1D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0B44226-A839-4B39-B8AA-5D09A2BD6E4C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A96625F4-E53C-4F28-8F0F-5158D608227A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6FDF7442-C83A-4790-9B72-E5462D381D3A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69B4B1C8-D773-49AD-93E8-758179C1C8B8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F56938E-4B3B-4E36-85E4-3DA3C2007DF5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E19534F6-311B-4BCD-8A1F-10CD8C6D42A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD7522A6-C23E-4006-9E9A-0E2BFAD1E305}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3D3E76BA-FD89-437C-A1F7-F0DBDD07E01F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B2B02BF5-26AF-4FC2-96F8-625706E60FC9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5D5A00F-4665-4D12-BBDD-AB6F723ECF78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13452,7 +13452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B4716D-63D1-4BDA-A018-77B167F9014E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CD5F2F-DA7B-4C25-AB5B-9260B752C076}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14775,17 +14775,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB27E561-7394-4F69-BCF7-E98C804478DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB869A82-AFF5-42C9-9C9B-3BD21D3C246A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F8F2F6B-7EBF-4A01-B318-F6DD69F0864D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F768AAD-6B43-4D62-B8F8-077E573A820F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1857669A-F05E-49DD-A28F-8DAC1D1CC816}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{25D57BF1-25E9-4678-AF0F-4ADBAC5F263E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D84063FB-F525-4BB8-82AD-7EF201CF7F96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4001F59E-2B4C-484D-B166-B54E7B66EE5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1C12BE3C-9294-40ED-AE81-2EA30E160E40}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B040C9A7-9E50-48EA-9A0A-5B1988E40399}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EF86B49-3138-440F-AE70-81CC69E9E0DC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E905809E-A57B-4592-B644-8C7B116F8D3D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A965815B-EAD2-4BB9-8C45-0580B48ACC4F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7330757-F5BC-4273-863D-61E87F90706D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B9276A2-DE2D-4E77-9405-A431E5AE9CDF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B6FFC22-DB4D-44A2-8B7A-A7AD1D02404E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5659968C-5382-4663-BFB1-9D468BC34E9F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB8C4DA8-3FBA-4BBD-8A8E-11EC93A64CB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1B87A3C-EB9A-4589-9896-45C2603D4FB5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{10E46716-482A-4CBC-A008-722B69A7D705}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0FAC5D0B-1FBC-49CE-99ED-65B551D9E9C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A01FC92B-650C-4989-897A-71AD3CBBB21A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14798,7 +14798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3442E8-D0E1-4A6C-8331-F683F8D36594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976068C1-2E05-499C-A1D0-0F93BF73B8F0}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16118,17 +16118,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88086E7A-B481-47FF-BE7F-CD704165232F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3707340E-A368-4D00-906E-6178170EAFD6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D5C6615-2966-40CA-84DF-54C4F3BCB3C2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95E70F4D-3A8B-4BF2-8BC3-05BDE1B8B833}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AC6425B-5F80-4CE1-8891-C2FF37A8FC32}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C4343CFC-34B2-4B6A-B5C3-B69D4D56CFB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6974E72-EAC0-43EA-8B27-3F6408A50B01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F67AEF6-572B-4A37-9CF3-F92414B9205A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E27FE620-F615-4BF2-AFA8-B6177A7D5868}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{28CA72F7-E500-4EE4-8C7F-A39912DFF5EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6ADC128-9AC6-430A-B505-515A8910B48E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F395917F-41D1-4C46-9A16-FB9FE154B3BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{069BF03D-F4F5-4E15-9FD6-ACCF311EB3EC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3F3C789-2260-49EA-92DC-091BAE3AEF07}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0ED9B53F-8154-4DC2-8A7B-0B621AD86DB7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{196FF844-069D-4058-ACE3-E6435B09FB88}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C917772-6CEC-46C9-9306-19EDD0E5C141}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F41CE4EE-993E-47E0-9197-91DDE21EA9A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2F663AF-F826-488B-9DCF-7F3EC448DDA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0A65BCF6-BFBE-465A-AFE3-5E5CD49909B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B0AF66F7-3E53-4F3A-91F1-94F822A09C2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F323440C-6A9B-4961-AA83-7DDAAF041CFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16141,7 +16141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BB8301-B34F-4993-845A-D956A20FC9F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B649BDE1-FB0D-45F9-851E-AB57BDF9C2FF}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17461,17 +17461,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8397DBE6-9CDC-4DF9-8E67-0C67414E153F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F307EEEE-99F6-45C0-88C2-8D26EC17660F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0EE32AC-8AF3-4039-964F-1897E625C5D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E57CF895-5343-480D-845E-641162DC371E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7D28256-D8F8-49A2-8864-6F88FCF95D0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1212F40C-639C-4D47-BD91-84AEBE2253A8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77215557-C8E5-4E79-A7B5-18AD6ACBD445}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FFB569A-2894-446B-BF30-11A9A8F35A5B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4159118D-4ABE-4531-8463-39F5A3282B0E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E8DF541-CA85-45EA-BE54-9D29BBA8FD94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4E2C55F-8170-408D-B12A-2AB9B0728D36}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F8CCBDA-2775-4F03-9D5C-AF7E27EAFDE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{755BA8C7-7B14-4CD8-A7FE-2FF22BE7EE18}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34D455C4-2024-4CEC-9B80-145D8AECBEB9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE08A643-B2F7-4032-BCF1-74619981AC98}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD9AC514-469E-4215-8671-E6E5325105D4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1210974A-25A0-48FB-8BEC-17949DF6FCF6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DC5BBCD-36A9-4DF1-83C1-8D4595151A13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B14D299B-CDF5-49A5-BB07-A950C8FE3A9A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{65CB8F48-77F5-4D6C-8B69-96878A3DBDF4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DDC446A2-BD33-4182-83A6-8CB6FA840E8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1419FC4A-4995-45F7-B445-400B904B8691}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
